--- a/settings/sample/示例.xlsx
+++ b/settings/sample/示例.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\GDExcelExporter\src\excelexporter\template\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DA4A7-8F23-495E-A043-ACBAB49CD64A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22185" yWindow="0" windowWidth="37860" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="17120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
@@ -22,18 +16,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>邓煊</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{01B87D48-64A7-496F-B8F7-A05AFEF820E5}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -42,7 +35,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -52,13 +44,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5E5120B2-AC25-469A-9C11-117E88AFFB5A}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -67,7 +58,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -76,13 +66,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AE7F38A8-FA82-4EF8-AEC3-9DE6F3B018D9}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -91,7 +80,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -105,18 +93,17 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>邓煊</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E9B1E181-6964-4510-A796-79F9BC20E620}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -125,7 +112,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -135,13 +121,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{D941470B-6D7F-405C-B3B3-8A4345567D52}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -150,7 +135,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -159,13 +143,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{5CE82A6E-8DC0-4987-834E-5858EA6479FE}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -174,7 +157,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -188,7 +170,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
+  <si>
+    <t>恭喜你！</t>
+  </si>
+  <si>
+    <t>你成功配置好了Godot导表项目。</t>
+  </si>
   <si>
     <t>int</t>
   </si>
@@ -217,6 +205,18 @@
     <t>function</t>
   </si>
   <si>
+    <t>function(a,b=null,c=null)</t>
+  </si>
+  <si>
+    <t>#string</t>
+  </si>
+  <si>
+    <t>#array_str</t>
+  </si>
+  <si>
+    <t>#dict</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -247,9 +247,45 @@
     <t>函数</t>
   </si>
   <si>
+    <t>固定参数函数</t>
+  </si>
+  <si>
+    <t>*忽略字段（不会导出）</t>
+  </si>
+  <si>
+    <t>翻译字符串</t>
+  </si>
+  <si>
+    <t>未命名字段</t>
+  </si>
+  <si>
+    <t>翻译字符数组</t>
+  </si>
+  <si>
+    <t>翻译字典</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>function_params</t>
+  </si>
+  <si>
+    <t>*string</t>
+  </si>
+  <si>
+    <t>tr_string</t>
+  </si>
+  <si>
+    <t>tr_array_str</t>
+  </si>
+  <si>
+    <t>tr_dict</t>
+  </si>
+  <si>
+    <t>恭喜你！成功配置好了Godot导表项目。</t>
+  </si>
+  <si>
     <t>1|2|3|4|5</t>
   </si>
   <si>
@@ -263,6 +299,18 @@
   </si>
   <si>
     <t>print(args)</t>
+  </si>
+  <si>
+    <t>print(a)</t>
+  </si>
+  <si>
+    <t>这段话你在表里看不到</t>
+  </si>
+  <si>
+    <t>这段话需要翻译</t>
+  </si>
+  <si>
+    <t>这个字段没命名，不导出</t>
   </si>
   <si>
     <t>aa</t>
@@ -285,104 +333,18 @@
 等警察抓住你们的时候......你会死的毫无意义。这里是我的地盘。
 你...你....你就是人们要躲避的东西。</t>
   </si>
-  <si>
-    <t>恭喜你！成功配置好了Godot导表项目。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜你！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你成功配置好了Godot导表项目。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定参数函数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>function_params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>print(a)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*忽略字段（不会导出）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这段话你在表里看不到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>function(a,b=null,c=null)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻译字符串</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这段话需要翻译</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tr_string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未命名字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个字段没命名，不导出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tr_array_str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tr_dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#array_str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻译字符数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻译字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,15 +354,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -408,12 +377,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -422,49 +391,152 @@
       <sz val="72"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,22 +545,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -496,41 +744,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="17" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -788,45 +1314,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05B5705-A15B-4B6E-BA75-B634086C09A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="B2" s="4" t="s">
-        <v>32</v>
+    <row r="2" ht="101.6" spans="2:2">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="89.25" x14ac:dyDescent="1.1499999999999999">
-      <c r="B3" s="4" t="s">
-        <v>33</v>
+    <row r="3" ht="101.6" spans="2:2">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="4" max="4" width="64.875" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
@@ -840,155 +1367,155 @@
     <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>51</v>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -998,55 +1525,55 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>47</v>
+      <c r="M4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -1060,25 +1587,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -1089,43 +1616,44 @@
         <v>3.01</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" ht="68" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5EEF8-000D-4B92-AD66-1E2D5AFC6ECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="4" max="4" width="64.875" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
@@ -1139,155 +1667,155 @@
     <col min="16" max="16" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>51</v>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1297,55 +1825,55 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>47</v>
+      <c r="M4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>3.01</v>
       </c>
@@ -1359,25 +1887,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -1388,30 +1916,30 @@
         <v>3.01</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" ht="68" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/settings/sample/示例.xlsx
+++ b/settings/sample/示例.xlsx
@@ -339,12 +339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,29 +374,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,24 +418,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,52 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -509,19 +481,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,175 +549,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,54 +736,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,6 +772,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -842,165 +819,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="17" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1329,12 +1314,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" ht="101.6" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="101.6" spans="2:2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1349,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1448,22 +1433,22 @@
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1748,22 +1733,22 @@
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
